--- a/ja/application_framework/application_framework/batch/jsr352/images/jsr352_images.xlsx
+++ b/ja/application_framework/application_framework/batch/jsr352/images/jsr352_images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\ja\application_framework\application_framework\batch\jsr352\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75865C2-6338-40FA-9812-83C970796036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="3"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="責務配置" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
     <sheet name="構成図" sheetId="3" r:id="rId3"/>
     <sheet name="運用設計" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +192,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -254,7 +282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -320,7 +354,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -370,7 +410,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -433,7 +479,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -493,7 +545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -553,7 +611,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="7" idx="1"/>
@@ -605,7 +669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -668,7 +738,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -740,7 +816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -800,7 +882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -869,7 +957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -938,7 +1032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17"/>
+        <xdr:cNvPr id="18" name="フローチャート : 磁気ディスク 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -990,7 +1090,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="18" idx="2"/>
@@ -1037,7 +1143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1100,7 +1212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1163,7 +1281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="16" idx="0"/>
@@ -1213,7 +1337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1276,7 +1406,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1327,7 +1463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1392,7 +1534,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1441,7 +1589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1504,7 +1658,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -1554,7 +1714,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -1606,7 +1772,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1671,7 +1843,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1728,7 +1906,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="角丸四角形 143"/>
+        <xdr:cNvPr id="144" name="角丸四角形 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1784,7 +1968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1840,7 +2030,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,7 +2096,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1960,7 +2162,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="3"/>
           <a:endCxn id="54" idx="1"/>
@@ -2010,7 +2218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2073,7 +2287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2142,7 +2362,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvPr id="54" name="角丸四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2208,7 +2434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="54" idx="3"/>
           <a:endCxn id="53" idx="1"/>
@@ -2258,7 +2490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2321,7 +2559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="3"/>
           <a:endCxn id="28" idx="1"/>
@@ -2371,7 +2615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2434,7 +2684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2497,7 +2753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="角丸四角形 96"/>
+        <xdr:cNvPr id="97" name="角丸四角形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2557,7 +2819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="角丸四角形 99"/>
+        <xdr:cNvPr id="100" name="角丸四角形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2626,7 +2894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="角丸四角形 100"/>
+        <xdr:cNvPr id="101" name="角丸四角形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2707,7 +2981,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="3"/>
           <a:endCxn id="101" idx="1"/>
@@ -2757,7 +3037,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="101" idx="3"/>
           <a:endCxn id="100" idx="1"/>
@@ -2807,7 +3093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="角丸四角形 108"/>
+        <xdr:cNvPr id="109" name="角丸四角形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2867,7 +3159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="角丸四角形 109"/>
+        <xdr:cNvPr id="110" name="角丸四角形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,7 +3225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="角丸四角形 110"/>
+        <xdr:cNvPr id="111" name="角丸四角形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2987,7 +3291,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="110" idx="0"/>
@@ -3037,7 +3347,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="144" idx="0"/>
@@ -3087,7 +3403,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="111" idx="0"/>
@@ -3137,7 +3459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="角丸四角形 121"/>
+        <xdr:cNvPr id="122" name="角丸四角形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3218,7 +3546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="角丸四角形 128"/>
+        <xdr:cNvPr id="129" name="角丸四角形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3287,7 +3621,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="3"/>
           <a:endCxn id="129" idx="1"/>
@@ -3337,7 +3677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線矢印コネクタ 133"/>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="3"/>
           <a:endCxn id="122" idx="1"/>
@@ -3387,7 +3733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="角丸四角形 136"/>
+        <xdr:cNvPr id="137" name="角丸四角形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3447,7 +3799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="角丸四角形 137"/>
+        <xdr:cNvPr id="138" name="角丸四角形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3507,7 +3865,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="109" idx="2"/>
           <a:endCxn id="137" idx="0"/>
@@ -3558,7 +3922,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149"/>
+        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="109" idx="2"/>
           <a:endCxn id="138" idx="0"/>
@@ -3609,7 +3979,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="直線矢印コネクタ 169"/>
+        <xdr:cNvPr id="170" name="直線矢印コネクタ 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="110" idx="2"/>
           <a:endCxn id="137" idx="0"/>
@@ -3660,7 +4036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="111" idx="2"/>
           <a:endCxn id="138" idx="3"/>
@@ -3711,7 +4093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="テキスト ボックス 177"/>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3774,7 +4162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="テキスト ボックス 178"/>
+        <xdr:cNvPr id="179" name="テキスト ボックス 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3837,7 +4231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="テキスト ボックス 180"/>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3900,7 +4300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="テキスト ボックス 181"/>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3963,7 +4369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4026,7 +4438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="テキスト ボックス 183"/>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4089,7 +4507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="テキスト ボックス 184"/>
+        <xdr:cNvPr id="185" name="テキスト ボックス 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4152,7 +4576,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="テキスト ボックス 185"/>
+        <xdr:cNvPr id="186" name="テキスト ボックス 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4213,20 +4643,26 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10991850" y="6076950"/>
-          <a:ext cx="2209800" cy="1085850"/>
+          <a:ext cx="2743200" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4299,7 +4735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4397,7 +4839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4473,7 +4921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4512,7 +4966,7 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>jsr352</a:t>
+            <a:t>Jakarta Batch</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
@@ -4542,7 +4996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4603,7 +5063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4664,7 +5130,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4725,7 +5197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4786,7 +5264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4862,7 +5346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4935,7 +5425,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4988,7 +5484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5110,7 +5612,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5166,7 +5674,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5222,7 +5736,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5278,7 +5798,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5334,7 +5860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5403,7 +5935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5472,7 +6010,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5541,7 +6085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5615,7 +6165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5689,7 +6245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5755,7 +6317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5838,23 +6406,29 @@
       <xdr:col>57</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11544301" y="6438900"/>
-          <a:ext cx="1657349" cy="180975"/>
+          <a:off x="11544301" y="6438901"/>
+          <a:ext cx="2162174" cy="152399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5892,7 +6466,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>jsr352</a:t>
+            <a:t>Jakarta Batch</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
@@ -5925,7 +6499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5991,7 +6571,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvPr id="27" name="角丸四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6049,7 +6635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6112,7 +6704,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="メモ 32"/>
+        <xdr:cNvPr id="33" name="メモ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6194,7 +6792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6254,7 +6858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6314,7 +6924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="メモ 35"/>
+        <xdr:cNvPr id="36" name="メモ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6502,7 +7118,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="3"/>
           <a:endCxn id="43" idx="1"/>
@@ -6559,7 +7181,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6625,7 +7253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6708,7 +7342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6774,7 +7414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="3"/>
           <a:endCxn id="36" idx="3"/>
@@ -6833,7 +7479,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="1"/>
           <a:endCxn id="33" idx="1"/>
@@ -6892,7 +7544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6952,7 +7610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="メモ 16"/>
+        <xdr:cNvPr id="17" name="メモ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7108,7 +7772,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="1"/>
           <a:endCxn id="17" idx="1"/>
@@ -7167,7 +7837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7233,7 +7909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7316,7 +7998,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPr id="41" name="図 40" descr="会社で働く人のイラスト（男性）">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7371,7 +8059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPr id="43" name="図 42" descr="会社で働く人のイラスト（男性）">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7426,7 +8120,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7486,7 +8186,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7546,7 +8252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47" descr="会社で働く人のイラスト（男性）"/>
+        <xdr:cNvPr id="48" name="図 47" descr="会社で働く人のイラスト（男性）">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7601,7 +8313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7661,7 +8379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7721,7 +8445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54" descr="真面目に書類を読んでいる人のイラスト（男性）"/>
+        <xdr:cNvPr id="55" name="図 54" descr="真面目に書類を読んでいる人のイラスト（男性）">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7776,7 +8506,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="55" idx="1"/>
@@ -7822,7 +8558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7864,7 +8600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7897,9 +8633,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7932,6 +8685,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8107,7 +8877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8123,10 +8893,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H3:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -8151,12 +8921,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BE31" sqref="BE31"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -8167,10 +8935,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
